--- a/outputs-r202/g__Fibrobacter.xlsx
+++ b/outputs-r202/g__Fibrobacter.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS7"/>
+  <dimension ref="A1:AT7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,6 +660,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -801,6 +806,11 @@
           <t>s__Fibrobacter sp900316465</t>
         </is>
       </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>s__Fibrobacter sp900316465</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -942,6 +952,11 @@
           <t>s__Fibrobacter sp900142495</t>
         </is>
       </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>s__Fibrobacter sp900142495</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1083,6 +1098,11 @@
           <t>s__Fibrobacter sp900215325</t>
         </is>
       </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>s__Fibrobacter sp900215325</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1224,6 +1244,11 @@
           <t>s__Fibrobacter sp002382975</t>
         </is>
       </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>s__Fibrobacter sp002382975(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1365,6 +1390,11 @@
           <t>s__Fibrobacter sp900142495</t>
         </is>
       </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>s__Fibrobacter sp900142495</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1502,6 +1532,11 @@
         <v>0.9965173299190888</v>
       </c>
       <c r="AS7" t="inlineStr">
+        <is>
+          <t>s__Fibrobacter sp900313675</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
         <is>
           <t>s__Fibrobacter sp900313675</t>
         </is>

--- a/outputs-r202/g__Fibrobacter.xlsx
+++ b/outputs-r202/g__Fibrobacter.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT7"/>
+  <dimension ref="A1:AT6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,133 +673,133 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.79717281537321e-11</v>
+        <v>1.651273039700551e-13</v>
       </c>
       <c r="C2" t="n">
-        <v>1.544796876093227e-07</v>
+        <v>1.233834098937955e-09</v>
       </c>
       <c r="D2" t="n">
-        <v>1.853748945204117e-09</v>
+        <v>5.486130641015296e-08</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001169785005859804</v>
+        <v>0.001342799166759026</v>
       </c>
       <c r="F2" t="n">
-        <v>2.220418277017551e-14</v>
+        <v>2.220357885668008e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>2.220418277017551e-14</v>
+        <v>2.220357885668008e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.383987120050066e-09</v>
+        <v>6.883319204529207e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>5.431299160271502e-07</v>
+        <v>7.498993589800554e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>2.220418277017551e-14</v>
+        <v>2.220357885668008e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>2.220418277017551e-14</v>
+        <v>2.220357885668008e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>1.912795236836715e-12</v>
+        <v>8.015309729302008e-12</v>
       </c>
       <c r="M2" t="n">
-        <v>2.220418277017551e-14</v>
+        <v>2.220357885668008e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>2.220418277017551e-14</v>
+        <v>2.220357885668008e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>8.423628986094976e-09</v>
+        <v>1.019719116846115e-09</v>
       </c>
       <c r="P2" t="n">
-        <v>1.075222902342748e-06</v>
+        <v>0.0001733165787244599</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.220418277017551e-14</v>
+        <v>2.220357885668008e-14</v>
       </c>
       <c r="R2" t="n">
-        <v>2.220418277017551e-14</v>
+        <v>2.220357885668008e-14</v>
       </c>
       <c r="S2" t="n">
-        <v>1.646470530487056e-08</v>
+        <v>1.281024823199889e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>2.220418277017551e-14</v>
+        <v>2.220357885668008e-14</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0002029152320245504</v>
+        <v>5.422284659417567e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>2.620354953879509e-07</v>
+        <v>6.911855465206064e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>2.220418277017551e-14</v>
+        <v>2.676824100025438e-13</v>
       </c>
       <c r="X2" t="n">
-        <v>1.933424470539429e-05</v>
+        <v>9.736766764168662e-05</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.9994738606259447</v>
+        <v>0.9983240123375591</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.220418277017551e-14</v>
+        <v>2.220357885668008e-14</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.220418277017551e-14</v>
+        <v>2.220357885668008e-14</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.241044645175499e-10</v>
+        <v>2.220357885668008e-14</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.220418277017551e-14</v>
+        <v>2.220357885668008e-14</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0001846349315318742</v>
+        <v>3.136421273500157e-07</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.220418277017551e-14</v>
+        <v>2.203199774434249e-08</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.73864884417381e-10</v>
+        <v>3.027804262150876e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.220418277017551e-14</v>
+        <v>2.220357885668008e-14</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.220418277017551e-14</v>
+        <v>2.220357885668008e-14</v>
       </c>
       <c r="AI2" t="n">
-        <v>3.271920950687234e-10</v>
+        <v>1.742563167664158e-13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.220418277017551e-14</v>
+        <v>2.220357885668008e-14</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.220418277017551e-14</v>
+        <v>2.220357885668008e-14</v>
       </c>
       <c r="AL2" t="n">
-        <v>2.112007821915761e-07</v>
+        <v>5.115919302650833e-09</v>
       </c>
       <c r="AM2" t="n">
-        <v>2.220418277017551e-14</v>
+        <v>2.220357885668008e-14</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.220418277017551e-14</v>
+        <v>2.220357885668008e-14</v>
       </c>
       <c r="AO2" t="n">
-        <v>2.220418277017551e-14</v>
+        <v>2.220357885668008e-14</v>
       </c>
       <c r="AP2" t="n">
-        <v>6.248187713745179e-10</v>
+        <v>2.154023150749009e-12</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.220418277017551e-14</v>
+        <v>2.220357885668008e-14</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.9994738606259447</v>
+        <v>0.9983240123375591</v>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
@@ -819,133 +819,133 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.515288311948307e-07</v>
+        <v>1.680907011281859e-13</v>
       </c>
       <c r="C3" t="n">
-        <v>3.114748772523769e-07</v>
+        <v>4.153954528331585e-12</v>
       </c>
       <c r="D3" t="n">
-        <v>1.37111042104484e-06</v>
+        <v>8.91629752445442e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04707785516432807</v>
+        <v>0.0001489070634471346</v>
       </c>
       <c r="F3" t="n">
-        <v>3.697293661598027e-13</v>
+        <v>2.220214320685005e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>3.697293661598031e-13</v>
+        <v>2.220214320685005e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>1.087200145073681e-09</v>
+        <v>9.683718772647294e-07</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01545981299851063</v>
+        <v>0.0001363076733891325</v>
       </c>
       <c r="J3" t="n">
-        <v>3.697293661598027e-13</v>
+        <v>2.220214320685005e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>3.697293661598022e-13</v>
+        <v>2.220214320685005e-14</v>
       </c>
       <c r="L3" t="n">
-        <v>2.83135232298505e-11</v>
+        <v>1.005749003352705e-12</v>
       </c>
       <c r="M3" t="n">
-        <v>3.697293661598026e-13</v>
+        <v>2.220214320685005e-14</v>
       </c>
       <c r="N3" t="n">
-        <v>3.697293661598026e-13</v>
+        <v>2.220214320685005e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002110607176428085</v>
+        <v>5.869002926824301e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9236517404042812</v>
+        <v>0.994528969485604</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.697293661598026e-13</v>
+        <v>2.220214320685005e-14</v>
       </c>
       <c r="R3" t="n">
-        <v>3.697293661598026e-13</v>
+        <v>2.220214320685005e-14</v>
       </c>
       <c r="S3" t="n">
-        <v>7.767130774347081e-07</v>
+        <v>5.847923113708227e-10</v>
       </c>
       <c r="T3" t="n">
-        <v>3.697293661598033e-13</v>
+        <v>2.220214320685005e-14</v>
       </c>
       <c r="U3" t="n">
-        <v>0.005272288262784069</v>
+        <v>0.004986109460406501</v>
       </c>
       <c r="V3" t="n">
-        <v>2.756054027484039e-11</v>
+        <v>7.199425421455494e-12</v>
       </c>
       <c r="W3" t="n">
-        <v>2.539352654431905e-05</v>
+        <v>2.220214320685005e-14</v>
       </c>
       <c r="X3" t="n">
-        <v>0.006130375791952089</v>
+        <v>0.0001390319661528676</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.697293661598033e-13</v>
+        <v>2.220214320685005e-14</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.697293661598038e-13</v>
+        <v>2.220214320685005e-14</v>
       </c>
       <c r="AA3" t="n">
-        <v>3.697293661598033e-13</v>
+        <v>2.220214320685005e-14</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.687878172021919e-09</v>
+        <v>2.220214320685005e-14</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.697293661598033e-13</v>
+        <v>2.220214320685005e-14</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.535606662811571e-06</v>
+        <v>1.269694396962392e-08</v>
       </c>
       <c r="AE3" t="n">
-        <v>3.697293661598033e-13</v>
+        <v>2.220214320685005e-14</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0002621458168051888</v>
+        <v>1.109680047983614e-07</v>
       </c>
       <c r="AG3" t="n">
-        <v>3.697293661598038e-13</v>
+        <v>2.220214320685005e-14</v>
       </c>
       <c r="AH3" t="n">
-        <v>3.697293661598033e-13</v>
+        <v>2.220214320685005e-14</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.976546658267345e-08</v>
+        <v>3.418394307555281e-12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3.697293661598364e-13</v>
+        <v>2.220214320685005e-14</v>
       </c>
       <c r="AK3" t="n">
-        <v>3.697293661598364e-13</v>
+        <v>2.220214320685005e-14</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.185093471576093e-09</v>
+        <v>4.804476910717148e-11</v>
       </c>
       <c r="AM3" t="n">
-        <v>3.697293661598364e-13</v>
+        <v>2.220214320685005e-14</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.408623450595871e-11</v>
+        <v>2.220214320685005e-14</v>
       </c>
       <c r="AO3" t="n">
-        <v>3.697293661598355e-13</v>
+        <v>2.220214320685005e-14</v>
       </c>
       <c r="AP3" t="n">
-        <v>4.541134183700041e-09</v>
+        <v>5.838006746500918e-12</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3.697293661598364e-13</v>
+        <v>2.220214320685005e-14</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.9236517404042812</v>
+        <v>0.994528969485604</v>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
@@ -965,133 +965,133 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01899983274333001</v>
+        <v>0.002144763739632264</v>
       </c>
       <c r="C4" t="n">
-        <v>3.18334675280438e-09</v>
+        <v>4.76099831539844e-11</v>
       </c>
       <c r="D4" t="n">
-        <v>1.546250577495202e-09</v>
+        <v>3.480242905304465e-08</v>
       </c>
       <c r="E4" t="n">
-        <v>7.100145136093445e-09</v>
+        <v>9.295672373754214e-12</v>
       </c>
       <c r="F4" t="n">
-        <v>2.220310303428397e-14</v>
+        <v>2.239154377824889e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>2.220310303428397e-14</v>
+        <v>2.239154377824889e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>1.909162126511167e-11</v>
+        <v>9.666914600145694e-12</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001305451339436575</v>
+        <v>0.002544606653632294</v>
       </c>
       <c r="J4" t="n">
-        <v>2.220310303428397e-14</v>
+        <v>2.239154377824889e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>2.220310303428397e-14</v>
+        <v>2.239154377824889e-14</v>
       </c>
       <c r="L4" t="n">
-        <v>8.690740736737744e-12</v>
+        <v>5.803427541616553e-12</v>
       </c>
       <c r="M4" t="n">
-        <v>2.220310303428397e-14</v>
+        <v>2.239154377824889e-14</v>
       </c>
       <c r="N4" t="n">
-        <v>2.220310303428397e-14</v>
+        <v>2.239154377824889e-14</v>
       </c>
       <c r="O4" t="n">
-        <v>2.397936682449127e-08</v>
+        <v>3.444011940600096e-09</v>
       </c>
       <c r="P4" t="n">
-        <v>2.22188425513126e-09</v>
+        <v>3.752491813260537e-08</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.220310303428397e-14</v>
+        <v>2.239154377824889e-14</v>
       </c>
       <c r="R4" t="n">
-        <v>2.220310303428397e-14</v>
+        <v>2.239154377824889e-14</v>
       </c>
       <c r="S4" t="n">
-        <v>9.591072879445156e-06</v>
+        <v>1.440644824050387e-06</v>
       </c>
       <c r="T4" t="n">
-        <v>2.220310303428397e-14</v>
+        <v>2.239154377824889e-14</v>
       </c>
       <c r="U4" t="n">
-        <v>2.220310303428397e-14</v>
+        <v>2.239154377824889e-14</v>
       </c>
       <c r="V4" t="n">
-        <v>5.74249705001131e-07</v>
+        <v>5.599310085316215e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9738816578581484</v>
+        <v>0.4444776256900765</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0001690479135702676</v>
+        <v>0.0005930637540635061</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.220310303428397e-14</v>
+        <v>2.239154377824889e-14</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.220310303428397e-14</v>
+        <v>2.239154377824889e-14</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.220310303428397e-14</v>
+        <v>2.239154377824889e-14</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.213825154259381e-06</v>
+        <v>6.43043928214377e-09</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.220310303428397e-14</v>
+        <v>2.239154377824889e-14</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.471761001072163e-08</v>
+        <v>3.784346962846895e-11</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.220310303428397e-14</v>
+        <v>2.239154377824889e-14</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.590813523841915e-08</v>
+        <v>3.780904740593247e-07</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.220310303428397e-14</v>
+        <v>2.239154377824889e-14</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.220310303428397e-14</v>
+        <v>2.239154377824889e-14</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.815031543580286e-08</v>
+        <v>9.502030746691827e-09</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.005631197194141172</v>
+        <v>0.4274011979544827</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.220310303428397e-14</v>
+        <v>2.239154377824889e-14</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.889279292484188e-13</v>
+        <v>2.239154377824889e-14</v>
       </c>
       <c r="AM4" t="n">
-        <v>2.220310303428397e-14</v>
+        <v>2.239154377824889e-14</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.294661989517581e-06</v>
+        <v>0.1228312319038616</v>
       </c>
       <c r="AO4" t="n">
-        <v>2.220310303428397e-14</v>
+        <v>2.239154377824889e-14</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.230615354859737e-08</v>
+        <v>4.443264952863427e-10</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.220310303428397e-14</v>
+        <v>2.239154377824889e-14</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.9738816578581484</v>
+        <v>0.4444776256900765</v>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
@@ -1100,443 +1100,297 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>s__Fibrobacter sp900215325</t>
+          <t>s__Fibrobacter sp900215325(reject)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG480.fasta</t>
+          <t>RUG690.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>2.22026351662364e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>1.982149197693856e-11</v>
       </c>
       <c r="D5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>2.868607428264095e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>0.002924253732296655</v>
       </c>
       <c r="F5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>2.22026351662364e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1111111111253982</v>
+        <v>2.22026351662364e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1111111111253982</v>
+        <v>1.02131604209387e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>9.920155236709813e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>2.22026351662364e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1111111111253982</v>
+        <v>2.22026351662364e-14</v>
       </c>
       <c r="L5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>2.60486344001251e-11</v>
       </c>
       <c r="M5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>2.22026351662364e-14</v>
       </c>
       <c r="N5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>2.22026351662364e-14</v>
       </c>
       <c r="O5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>0.0001923014254455031</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1111111111253982</v>
+        <v>0.9965109643324163</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>2.22026351662364e-14</v>
       </c>
       <c r="R5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>2.22026351662364e-14</v>
       </c>
       <c r="S5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>2.557377016262117e-10</v>
       </c>
       <c r="T5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>2.22026351662364e-14</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1111111109959477</v>
+        <v>0.0001746166592927009</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1111111111253982</v>
+        <v>3.25738835480019e-12</v>
       </c>
       <c r="W5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>2.22026351662364e-14</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1111111111253982</v>
+        <v>9.466747096573537e-05</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>2.22026351662364e-14</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1111111111253982</v>
+        <v>2.22026351662364e-14</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>2.22026351662364e-14</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>2.22026351662364e-14</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>2.22026351662364e-14</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>9.029474675877326e-08</v>
       </c>
       <c r="AE5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>5.676554533797721e-10</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.1111111111253982</v>
+        <v>7.682261564139171e-09</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>2.22026351662364e-14</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>2.22026351662364e-14</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>2.22026351662364e-14</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>2.22026351662364e-14</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>2.22026351662364e-14</v>
       </c>
       <c r="AL5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>6.048790313685188e-09</v>
       </c>
       <c r="AM5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>2.22026351662364e-14</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>2.22026351662364e-14</v>
       </c>
       <c r="AO5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>2.22026351662364e-14</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>4.871094107573145e-12</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.626802188913866e-14</v>
+        <v>2.22026351662364e-14</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.1111111111253982</v>
+        <v>0.9965109643324163</v>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>s__Fibrobacter sp002382975</t>
+          <t>s__Fibrobacter sp900142495</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>s__Fibrobacter sp002382975(reject)</t>
+          <t>s__Fibrobacter sp900142495</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG690.fasta</t>
+          <t>RUG831.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.728402173733096e-12</v>
+        <v>0.0001362196356494889</v>
       </c>
       <c r="C6" t="n">
-        <v>1.045216628061487e-06</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>5.684783633875139e-06</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08577867608863023</v>
+        <v>8.211302826788809e-08</v>
       </c>
       <c r="F6" t="n">
-        <v>2.4480607847399e-13</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>2.448060784739906e-13</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>5.265934341861175e-09</v>
+        <v>0.03669316518162651</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001201089199767928</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>2.448060784739906e-13</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>2.448060784739902e-13</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="L6" t="n">
-        <v>7.083359261008498e-09</v>
+        <v>5.755396643573666e-07</v>
       </c>
       <c r="M6" t="n">
-        <v>2.4480607847399e-13</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="N6" t="n">
-        <v>2.4480607847399e-13</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0002241692672090577</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8482156828184022</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4480607847399e-13</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="R6" t="n">
-        <v>2.4480607847399e-13</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="S6" t="n">
-        <v>2.193654812820782e-10</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="T6" t="n">
-        <v>2.448060784739906e-13</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="U6" t="n">
-        <v>6.795545687301176e-06</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.090039588191455e-07</v>
+        <v>3.659674329232211e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>3.648691470772587e-11</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0001824803237511741</v>
+        <v>0.9623569375719014</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.448060784739906e-13</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.448060784739908e-13</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.448060784739906e-13</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.650446537928846e-10</v>
+        <v>1.051574736297091e-06</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.448060784739906e-13</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.05523719663779744</v>
+        <v>6.132414673326755e-07</v>
       </c>
       <c r="AE6" t="n">
-        <v>3.289364091549095e-09</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.448060784741086e-13</v>
+        <v>1.256254076022652e-12</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.448060784739908e-13</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.448060784739908e-13</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="AI6" t="n">
-        <v>7.532586464029019e-11</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2.448060784740232e-13</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.448060784739903e-13</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.01022802409862893</v>
+        <v>0.0007747582363619998</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.448060784739903e-13</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.448060784739903e-13</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="AO6" t="n">
-        <v>2.448060784739903e-13</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.095170127283133e-08</v>
+        <v>1.603275064764519e-10</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.448060784739906e-13</v>
+        <v>2.220170182250525e-14</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.8482156828184022</v>
+        <v>0.9623569375719014</v>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>s__Fibrobacter sp900142495</t>
+          <t>s__Fibrobacter sp900313675</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
-        <is>
-          <t>s__Fibrobacter sp900142495</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>RUG831.fasta</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9.896370991844603e-07</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6.161472554511018e-10</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.306439521048284e-14</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.825325315678517e-09</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.306439521048301e-14</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3.306439521048301e-14</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0005539769293748454</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.306439521048291e-14</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.306439521048304e-14</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.306439521048286e-14</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.314729145427657e-06</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3.306439521048286e-14</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.306439521048291e-14</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3.306439521048291e-14</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.306439521048291e-14</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3.306439521048291e-14</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3.306439521048291e-14</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.306439521048286e-14</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.306439521048296e-14</v>
-      </c>
-      <c r="U7" t="n">
-        <v>3.306439521048286e-14</v>
-      </c>
-      <c r="V7" t="n">
-        <v>3.661288182332296e-09</v>
-      </c>
-      <c r="W7" t="n">
-        <v>3.306439521048286e-14</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.9965173299190888</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>3.306439521048289e-14</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>3.306439521048296e-14</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>3.306439521048289e-14</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1.624523664213051e-06</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>3.306439521048286e-14</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.001571513847453703</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>3.306439521048289e-14</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>4.776056476325619e-11</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>3.306439521048294e-14</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>3.306439521048296e-14</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>3.306439521048319e-14</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>3.306439521048321e-14</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>3.306439521048316e-14</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0.001352240838151123</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>3.306439521048314e-14</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.306439521048319e-14</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>3.306439521048314e-14</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>3.424508987023137e-09</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>3.306439521048311e-14</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>0.9965173299190888</v>
-      </c>
-      <c r="AS7" t="inlineStr">
-        <is>
-          <t>s__Fibrobacter sp900313675</t>
-        </is>
-      </c>
-      <c r="AT7" t="inlineStr">
         <is>
           <t>s__Fibrobacter sp900313675</t>
         </is>
